--- a/aws_quicksight_skill_set.xlsx
+++ b/aws_quicksight_skill_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\prasanna_aws_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Documents\prasanna\Sql_queries\Daily_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792B3E7D-CF60-4C22-A910-8CB97B778033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2941FC-2F0E-4911-A14C-908BAC3FA73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14016" windowHeight="12336" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="14016" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sql" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="aws_glue" sheetId="3" r:id="rId3"/>
     <sheet name="quicksight _functions" sheetId="4" r:id="rId4"/>
     <sheet name="excel-formulas" sheetId="5" r:id="rId5"/>
+    <sheet name="github" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="285">
   <si>
     <t>Concepts</t>
   </si>
@@ -800,13 +801,97 @@
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>git clone (path)</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -m"msg"</t>
+  </si>
+  <si>
+    <t>git push origin branch</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>Git commads</t>
+  </si>
+  <si>
+    <t>github repostiry cloning process</t>
+  </si>
+  <si>
+    <t>one branch(dev)files move to another branch(prod) , another branch(prod) files move to one barnch(dev)</t>
+  </si>
+  <si>
+    <t>git checkout (branch name)</t>
+  </si>
+  <si>
+    <t>repeat these two comands</t>
+  </si>
+  <si>
+    <t>file is add or modified then check ----</t>
+  </si>
+  <si>
+    <t>Git rebase:</t>
+  </si>
+  <si>
+    <t>git rebase:</t>
+  </si>
+  <si>
+    <t>git checkout (branch(dev))</t>
+  </si>
+  <si>
+    <t>fdev to prod--</t>
+  </si>
+  <si>
+    <t>git checkout (branch(prod))</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git rebase (another branch(prod))</t>
+  </si>
+  <si>
+    <t>git rebase (another branch)(dev))</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>files delete to any branch</t>
+  </si>
+  <si>
+    <t>delete all files in branch</t>
+  </si>
+  <si>
+    <t>git rn -r*</t>
+  </si>
+  <si>
+    <t>git push origin (branch_name)</t>
+  </si>
+  <si>
+    <t>Syntax:</t>
+  </si>
+  <si>
+    <t>1. df.head()        2. df.tail()          3. df.shape()     4. df.unique()   5.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,13 +930,45 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -867,7 +984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -882,6 +999,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,8 +1016,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1195,24 +1322,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1637,18 +1764,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
@@ -1741,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8E5F18-ED14-449C-AD84-5FFF6E5882BB}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1753,39 +1880,44 @@
     <col min="2" max="2" width="65.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1796,7 +1928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1807,7 +1939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1818,7 +1950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1829,7 +1961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1840,7 +1972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1851,7 +1983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1862,7 +1994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1873,7 +2005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1884,20 +2016,20 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1907,8 +2039,11 @@
       <c r="C15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1970,7 +2105,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
@@ -1998,30 +2134,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -2218,7 +2354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8647A01-D59C-4EDD-92CF-62197C44FC12}">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+    <sheetView topLeftCell="C24" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2231,32 +2367,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
@@ -2266,10 +2402,10 @@
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D3" s="5"/>
@@ -2278,193 +2414,193 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="6" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="6" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2473,477 +2609,477 @@
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="11"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="6" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C133" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="11" t="s">
+      <c r="C135" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="11" t="s">
+      <c r="C137" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C138" s="11" t="s">
+      <c r="C138" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="6" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3108,4 +3244,235 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AF21F1-708D-4715-9529-2626EBE0F743}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A35:B35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>